--- a/Desafios/d13/Parte 2/exemplodesafio13Parte2.xlsx
+++ b/Desafios/d13/Parte 2/exemplodesafio13Parte2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipebs10\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipebs10\Documents\estudos\html-css\Desafios\d13\Parte 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58325798-9CEE-4E4B-88A6-DCF61FB1A664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBE908B-C543-4368-A56A-F5381D30BDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D607A99A-CEB4-4969-870D-3A0109F21A54}"/>
+    <workbookView xWindow="21825" yWindow="7380" windowWidth="11520" windowHeight="7875" xr2:uid="{D607A99A-CEB4-4969-870D-3A0109F21A54}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -102,18 +102,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603CA54A-3883-48AC-AA8C-C1BE462B9229}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,39 +467,39 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2"/>
